--- a/2024/shuffle-architecute/Teste10/content/results/metrics_7_8.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_7_8.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.980720378868446</v>
+        <v>0.9788028950322073</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7558646391476841</v>
+        <v>0.7579395023866324</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9944640230268254</v>
+        <v>0.9853587229815656</v>
       </c>
       <c r="E2" t="n">
-        <v>0.987357440468204</v>
+        <v>0.9792656962666652</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9901169746032867</v>
+        <v>0.9897653634445395</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08091244101524353</v>
+        <v>0.0889597162604332</v>
       </c>
       <c r="H2" t="n">
-        <v>1.632534265518188</v>
+        <v>1.618659734725952</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01997462660074234</v>
+        <v>0.05155037343502045</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07582855969667435</v>
+        <v>0.05288022384047508</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04790157452225685</v>
+        <v>0.05221529677510262</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.980437637496733</v>
+        <v>0.9785623898988124</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7557573154653316</v>
+        <v>0.7576086186023142</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9944901045047347</v>
+        <v>0.9855104293560026</v>
       </c>
       <c r="E3" t="n">
-        <v>0.987491321702433</v>
+        <v>0.9801848367797692</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9902095152517323</v>
+        <v>0.9900474577419105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08209905028343201</v>
+        <v>0.08996905386447906</v>
       </c>
       <c r="H3" t="n">
-        <v>1.633252024650574</v>
+        <v>1.620872259140015</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01988052017986774</v>
+        <v>0.05101623386144638</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07502555102109909</v>
+        <v>0.05053607374429703</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04745304584503174</v>
+        <v>0.05077610164880753</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.980147837340281</v>
+        <v>0.9783132306512816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7556464668639391</v>
+        <v>0.7572698240521327</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9945160900278376</v>
+        <v>0.9856583105396813</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9876223447454394</v>
+        <v>0.9810936319753852</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9903002614118809</v>
+        <v>0.9903256345199356</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08331527560949326</v>
+        <v>0.09101472795009613</v>
       </c>
       <c r="H4" t="n">
-        <v>1.633993148803711</v>
+        <v>1.623137831687927</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01978676021099091</v>
+        <v>0.05049556121230125</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07423968613147736</v>
+        <v>0.04821830242872238</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04701320827007294</v>
+        <v>0.04935689643025398</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9798507292527762</v>
+        <v>0.9780552071197004</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7555320499590686</v>
+        <v>0.7569228833430837</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9945419823386216</v>
+        <v>0.9858023129686891</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9877502999755712</v>
+        <v>0.9819912047294818</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9903890649511399</v>
+        <v>0.9905996649389714</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08456217497587204</v>
+        <v>0.09209759533405304</v>
       </c>
       <c r="H5" t="n">
-        <v>1.634758353233337</v>
+        <v>1.625457763671875</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01969333738088608</v>
+        <v>0.04998854175209999</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07347222417593002</v>
+        <v>0.04592915624380112</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04658278822898865</v>
+        <v>0.04795883968472481</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9795461889164524</v>
+        <v>0.9777880114467106</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7554139823135726</v>
+        <v>0.7565675462814387</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9945677541332013</v>
+        <v>0.9859422103685603</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9878751188387845</v>
+        <v>0.9828766288043083</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9904758872113432</v>
+        <v>0.9908692484740103</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08584026992321014</v>
+        <v>0.09321895241737366</v>
       </c>
       <c r="H6" t="n">
-        <v>1.635547876358032</v>
+        <v>1.627833962440491</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01960034854710102</v>
+        <v>0.04949597641825676</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07272357493638992</v>
+        <v>0.04367099702358246</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04616197943687439</v>
+        <v>0.04658347368240356</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9792340419061816</v>
+        <v>0.977511405264673</v>
       </c>
       <c r="C7" t="n">
-        <v>0.755292201463326</v>
+        <v>0.7562035663156794</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9945933614995085</v>
+        <v>0.9860778912139389</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9879965088352374</v>
+        <v>0.9837486928366523</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9905605263599943</v>
+        <v>0.9911340364611076</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08715029060840607</v>
+        <v>0.09437982738018036</v>
       </c>
       <c r="H7" t="n">
-        <v>1.636362075805664</v>
+        <v>1.630267858505249</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01950795203447342</v>
+        <v>0.0490182600915432</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07199549674987793</v>
+        <v>0.04144690930843353</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04575174301862717</v>
+        <v>0.04523257166147232</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9789141059398226</v>
+        <v>0.9772250933326241</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7551666129538742</v>
+        <v>0.7558307146181303</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9946187917253055</v>
+        <v>0.9862090917025561</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9881143744318031</v>
+        <v>0.9846066449975097</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9906429359658613</v>
+        <v>0.9913937454171089</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0884929820895195</v>
+        <v>0.09558140486478806</v>
       </c>
       <c r="H8" t="n">
-        <v>1.637202024459839</v>
+        <v>1.632761240005493</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01941619627177715</v>
+        <v>0.04855631664395332</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07128854840993881</v>
+        <v>0.03925880789756775</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04535231366753578</v>
+        <v>0.04390758275985718</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9785861835294238</v>
+        <v>0.9769288128273871</v>
       </c>
       <c r="C9" t="n">
-        <v>0.755037182155527</v>
+        <v>0.7554487250718671</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9946440173776491</v>
+        <v>0.9863357435073595</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9882285911753304</v>
+        <v>0.9854494172201289</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9907229828900518</v>
+        <v>0.9916480969492295</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08986920118331909</v>
+        <v>0.09682483971118927</v>
       </c>
       <c r="H9" t="n">
-        <v>1.638067483901978</v>
+        <v>1.635315537452698</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01932517997920513</v>
+        <v>0.04811038821935654</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07060349732637405</v>
+        <v>0.03710942342877388</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04496434330940247</v>
+        <v>0.04260992631316185</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9782501107591504</v>
+        <v>0.9766222824262959</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7549037933478542</v>
+        <v>0.7550573730635323</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9946689679947692</v>
+        <v>0.9864577322760091</v>
       </c>
       <c r="E10" t="n">
-        <v>0.988338964117683</v>
+        <v>0.9862757876280095</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9908005595060814</v>
+        <v>0.9918967384030719</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09127963334321976</v>
+        <v>0.09811126440763474</v>
       </c>
       <c r="H10" t="n">
-        <v>1.638959407806396</v>
+        <v>1.637932419776917</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0192351546138525</v>
+        <v>0.04768088087439537</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06994149088859558</v>
+        <v>0.03500187024474144</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04458834230899811</v>
+        <v>0.04134140163660049</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.977905645441022</v>
+        <v>0.9763052052754586</v>
       </c>
       <c r="C11" t="n">
-        <v>0.754766417995913</v>
+        <v>0.754656360084395</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9946936088761299</v>
+        <v>0.9865746618835336</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9884452418293355</v>
+        <v>0.9870849377445131</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9908754933413642</v>
+        <v>0.9921393357641802</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09272527694702148</v>
+        <v>0.09944198280572891</v>
       </c>
       <c r="H11" t="n">
-        <v>1.639878034591675</v>
+        <v>1.640614032745361</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01914624497294426</v>
+        <v>0.04726918414235115</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06930404901504517</v>
+        <v>0.03293823450803757</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04422514513134956</v>
+        <v>0.04010371491312981</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9775526456855197</v>
+        <v>0.9759773057564557</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7546249218096095</v>
+        <v>0.7542454301033147</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9947179543149319</v>
+        <v>0.9866865341153971</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9885472804089055</v>
+        <v>0.987875553311647</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9909476896779886</v>
+        <v>0.9923755510776501</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09420674294233322</v>
+        <v>0.1008181124925613</v>
       </c>
       <c r="H12" t="n">
-        <v>1.640824317932129</v>
+        <v>1.643361926078796</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01905840449035168</v>
+        <v>0.04687529429793358</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06869203597307205</v>
+        <v>0.03092186897993088</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04387522116303444</v>
+        <v>0.03889858722686768</v>
       </c>
     </row>
     <row r="13">
@@ -899,34 +899,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9771908537744084</v>
+        <v>0.9756382580725801</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7544792696588909</v>
+        <v>0.7538243394841813</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9947419258719926</v>
+        <v>0.9867929813313883</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9886449026096408</v>
+        <v>0.988646829561842</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9910170195458152</v>
+        <v>0.9926050645369875</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09572510421276093</v>
+        <v>0.1022410169243813</v>
       </c>
       <c r="H13" t="n">
-        <v>1.641798257827759</v>
+        <v>1.646177768707275</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01897190883755684</v>
+        <v>0.04650050401687622</v>
       </c>
       <c r="J13" t="n">
-        <v>0.068106509745121</v>
+        <v>0.02895482629537582</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04353918880224228</v>
+        <v>0.03772764652967453</v>
       </c>
     </row>
     <row r="14">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.97682008177612</v>
+        <v>0.9752877298015565</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7543293784032744</v>
+        <v>0.7533928083402857</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9947654787681335</v>
+        <v>0.9868938554702724</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9887378490829756</v>
+        <v>0.9893973654184084</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9910832889739823</v>
+        <v>0.9928274655252342</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09728115051984787</v>
+        <v>0.1037121042609215</v>
       </c>
       <c r="H14" t="n">
-        <v>1.642800569534302</v>
+        <v>1.649063467979431</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01888692937791348</v>
+        <v>0.04614533856511116</v>
       </c>
       <c r="J14" t="n">
-        <v>0.06754903495311737</v>
+        <v>0.02704068087041378</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0432179868221283</v>
+        <v>0.036592997610569</v>
       </c>
     </row>
     <row r="15">
@@ -973,34 +973,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9764401284514319</v>
+        <v>0.9749254676262629</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7541751799923211</v>
+        <v>0.7529505804574413</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9947885776938248</v>
+        <v>0.9869888559955177</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9888259970643777</v>
+        <v>0.9901263626667068</v>
       </c>
       <c r="F15" t="n">
-        <v>0.991146424679805</v>
+        <v>0.9930424544442451</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0988757386803627</v>
+        <v>0.105232447385788</v>
       </c>
       <c r="H15" t="n">
-        <v>1.643831729888916</v>
+        <v>1.652020573616028</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01880358345806599</v>
+        <v>0.04581084847450256</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06702032685279846</v>
+        <v>0.02518146485090256</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04291198030114174</v>
+        <v>0.03549616411328316</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.976050756090366</v>
+        <v>0.974551132034277</v>
       </c>
       <c r="C16" t="n">
-        <v>0.754016544527875</v>
+        <v>0.7524973911103324</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9948111934133405</v>
+        <v>0.9870777570955561</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9889090313546974</v>
+        <v>0.9908326744552295</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9912062245050327</v>
+        <v>0.9932496727564919</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1005098521709442</v>
+        <v>0.1068034470081329</v>
       </c>
       <c r="H16" t="n">
-        <v>1.644892454147339</v>
+        <v>1.655050992965698</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01872198283672333</v>
+        <v>0.0454978346824646</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06652230024337769</v>
+        <v>0.02338010631501675</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04262214154005051</v>
+        <v>0.03443897143006325</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9756517999093371</v>
+        <v>0.9741643915290664</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7538534052526877</v>
+        <v>0.7520330179524342</v>
       </c>
       <c r="D17" t="n">
-        <v>0.994833240369129</v>
+        <v>0.9871602726663542</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9889868174564129</v>
+        <v>0.9915151166746826</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9912625623512669</v>
+        <v>0.9934487229687484</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1021841838955879</v>
+        <v>0.1084265112876892</v>
       </c>
       <c r="H17" t="n">
-        <v>1.645983457565308</v>
+        <v>1.658156275749207</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01864243298768997</v>
+        <v>0.04520731046795845</v>
       </c>
       <c r="J17" t="n">
-        <v>0.06605574488639832</v>
+        <v>0.0216396227478981</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04234907776117325</v>
+        <v>0.03342345356941223</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9752429549114844</v>
+        <v>0.9737649363651983</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7536856885108967</v>
+        <v>0.7515572101562172</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9948547393637666</v>
+        <v>0.9872360869949381</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9890590922409753</v>
+        <v>0.992172768341909</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9913152816463291</v>
+        <v>0.9936392599564819</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1039000153541565</v>
+        <v>0.1101029515266418</v>
       </c>
       <c r="H18" t="n">
-        <v>1.647104978561401</v>
+        <v>1.661338090896606</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01856486313045025</v>
+        <v>0.04494037479162216</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0656222477555275</v>
+        <v>0.0199623666703701</v>
       </c>
       <c r="K18" t="n">
-        <v>0.04209355637431145</v>
+        <v>0.03245136886835098</v>
       </c>
     </row>
     <row r="19">
@@ -1121,34 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.974824032061845</v>
+        <v>0.973352425437945</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7535132998880791</v>
+        <v>0.7510697415935988</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9948755890058679</v>
+        <v>0.9873049180772281</v>
       </c>
       <c r="E19" t="n">
-        <v>0.989125626915086</v>
+        <v>0.9928046824727904</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9913642160364082</v>
+        <v>0.9938209565620481</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1056581512093544</v>
+        <v>0.1118341758847237</v>
       </c>
       <c r="H19" t="n">
-        <v>1.648257732391357</v>
+        <v>1.664597749710083</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01848963461816311</v>
+        <v>0.04469802975654602</v>
       </c>
       <c r="J19" t="n">
-        <v>0.06522318720817566</v>
+        <v>0.01835074834525585</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04185637831687927</v>
+        <v>0.03152438253164291</v>
       </c>
     </row>
     <row r="20">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9743947804508304</v>
+        <v>0.9729265517609577</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7533361625794111</v>
+        <v>0.7505703852379759</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9948957174160391</v>
+        <v>0.9873663187372158</v>
       </c>
       <c r="E20" t="n">
-        <v>0.98918612910749</v>
+        <v>0.9934099061194912</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9914091256695901</v>
+        <v>0.9939934171827591</v>
       </c>
       <c r="G20" t="n">
-        <v>0.107459619641304</v>
+        <v>0.1136214733123779</v>
       </c>
       <c r="H20" t="n">
-        <v>1.649442315101624</v>
+        <v>1.667937040328979</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01841700822114944</v>
+        <v>0.04448184370994568</v>
       </c>
       <c r="J20" t="n">
-        <v>0.06486029922962189</v>
+        <v>0.0168072022497654</v>
       </c>
       <c r="K20" t="n">
-        <v>0.04163870960474014</v>
+        <v>0.03064451925456524</v>
       </c>
     </row>
     <row r="21">
@@ -1195,34 +1195,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9739549118783003</v>
+        <v>0.9724869737175739</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7531541531774988</v>
+        <v>0.7500589768960059</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9949151124285239</v>
+        <v>0.9874199769981754</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9892404152318363</v>
+        <v>0.9939875392178225</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9914499446827294</v>
+        <v>0.9941563181824665</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1093056574463844</v>
+        <v>0.1154662817716599</v>
       </c>
       <c r="H21" t="n">
-        <v>1.650659322738647</v>
+        <v>1.671356678009033</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01834702864289284</v>
+        <v>0.04429291933774948</v>
       </c>
       <c r="J21" t="n">
-        <v>0.06453469395637512</v>
+        <v>0.01533402130007744</v>
       </c>
       <c r="K21" t="n">
-        <v>0.04144086688756943</v>
+        <v>0.02981342747807503</v>
       </c>
     </row>
     <row r="22">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9735042563783702</v>
+        <v>0.9720333499356082</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7529671702027241</v>
+        <v>0.7495353113264926</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9949337120590662</v>
+        <v>0.9874654877912853</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9892882350971618</v>
+        <v>0.9945367846817339</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9914864544654876</v>
+        <v>0.9943092930976642</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1111969649791718</v>
+        <v>0.1173700541257858</v>
       </c>
       <c r="H22" t="n">
-        <v>1.651909828186035</v>
+        <v>1.674858570098877</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01827991753816605</v>
+        <v>0.04413267970085144</v>
       </c>
       <c r="J22" t="n">
-        <v>0.06424787640571594</v>
+        <v>0.01393324136734009</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04126390814781189</v>
+        <v>0.02903297543525696</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.973042505170991</v>
+        <v>0.97156535383835</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7527751418330626</v>
+        <v>0.7489992591161484</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9949514265496717</v>
+        <v>0.9875024703498692</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9893292436226931</v>
+        <v>0.9950568798250254</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9915184197935459</v>
+        <v>0.99445205951589</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1131348311901093</v>
+        <v>0.1193341240286827</v>
       </c>
       <c r="H23" t="n">
-        <v>1.653193831443787</v>
+        <v>1.678443193435669</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01821600086987019</v>
+        <v>0.0440024696290493</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0640019103884697</v>
+        <v>0.01260680332779884</v>
       </c>
       <c r="K23" t="n">
-        <v>0.04110897332429886</v>
+        <v>0.02830460667610168</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9725694118987348</v>
+        <v>0.9710826783073777</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7525779507059875</v>
+        <v>0.7484506897244655</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9949682179632654</v>
+        <v>0.9875304053850217</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9893632570804127</v>
+        <v>0.9955472411393536</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9915457059056912</v>
+        <v>0.9945842619298245</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1151203066110611</v>
+        <v>0.1213598176836967</v>
       </c>
       <c r="H24" t="n">
-        <v>1.654512405395508</v>
+        <v>1.682111263275146</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0181554164737463</v>
+        <v>0.04390411451458931</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06379790604114532</v>
+        <v>0.01135619916021824</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04097672551870346</v>
+        <v>0.02763013541698456</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9720847093958507</v>
+        <v>0.9705850049005527</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7523755053025055</v>
+        <v>0.7478894883609497</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9949840384303288</v>
+        <v>0.9875488360494726</v>
       </c>
       <c r="E25" t="n">
-        <v>0.989389898591054</v>
+        <v>0.9960073162825759</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9915680896324101</v>
+        <v>0.9947056113080545</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1171545013785362</v>
+        <v>0.1234484389424324</v>
       </c>
       <c r="H25" t="n">
-        <v>1.655866146087646</v>
+        <v>1.685864210128784</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01809833198785782</v>
+        <v>0.0438392162322998</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0636381134390831</v>
+        <v>0.01018283516168594</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04086823388934135</v>
+        <v>0.02701103128492832</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9715881210410182</v>
+        <v>0.9700719787799184</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7521676481801735</v>
+        <v>0.7473155867036825</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9949988180244822</v>
+        <v>0.9875572912122416</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9894089531713044</v>
+        <v>0.9964366613420316</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9915853763023799</v>
+        <v>0.9948158363939007</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1192385777831078</v>
+        <v>0.1256014853715897</v>
       </c>
       <c r="H26" t="n">
-        <v>1.657256126403809</v>
+        <v>1.689701795578003</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01804500631988049</v>
+        <v>0.04380945116281509</v>
       </c>
       <c r="J26" t="n">
-        <v>0.06352382898330688</v>
+        <v>0.009087845683097839</v>
       </c>
       <c r="K26" t="n">
-        <v>0.04078444465994835</v>
+        <v>0.02644868195056915</v>
       </c>
     </row>
   </sheetData>
